--- a/Data/AirQuality/LondonAir/coords_londonair.xlsx
+++ b/Data/AirQuality/LondonAir/coords_londonair.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucfnxch_ucl_ac_uk/Documents/Xiaoyi_dissertation/Analysis/Data/AirQuality/LondonAir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_39526A12D1523C15EA3DB5A7B7748735655BB37F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F93E20F-6F4D-40B5-9419-4AB0E236EC28}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_39526A12D1523C15EA3DB5A7B7748735655BB37F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0245985F-2846-4564-9AB3-0E9C0A845570}"/>
   <bookViews>
-    <workbookView xWindow="5423" yWindow="810" windowWidth="12390" windowHeight="9442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1073" yWindow="1073" windowWidth="13784" windowHeight="9442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="119">
   <si>
     <t>Site</t>
   </si>
@@ -64,9 +63,6 @@
     <t>CD9</t>
   </si>
   <si>
-    <t>Camden - Euston Road</t>
-  </si>
-  <si>
     <t>51.527975000000, -0.128774200000</t>
   </si>
   <si>
@@ -380,12 +376,6 @@
   </si>
   <si>
     <t>Westminster - Marylebone Road FDMS</t>
-  </si>
-  <si>
-    <t>WCS</t>
-  </si>
-  <si>
-    <t>Islington - Holloway Road</t>
   </si>
   <si>
     <t>Camden - Euston Road</t>
@@ -424,6 +414,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -431,6 +422,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -487,6 +479,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -520,15 +513,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -575,6 +565,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -843,554 +837,554 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>118</v>
+      <c r="B14" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>47</v>
+      <c r="D16" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="6" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="6" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="6" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="6" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="B22" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="B23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="6" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="B24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="6" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="B25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="6" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="B26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="6" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="6" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="B30" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="6" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="B31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="6" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="B32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="6" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="B33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="6" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+      <c r="B34" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="6" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+      <c r="B35" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="B36" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="6" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
+      <c r="B37" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="6" t="s">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="6" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>80</v>
+      <c r="C39" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
+      <c r="A40" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -1400,159 +1394,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.46484375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.46484375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11"/>
-      <c r="B11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
